--- a/DEV/trunk/org.openl.rules/test/rules/helpers/IntRangeTest.xlsx
+++ b/DEV/trunk/org.openl.rules/test/rules/helpers/IntRangeTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
   <si>
     <t>C1</t>
   </si>
@@ -133,13 +133,52 @@
   </si>
   <si>
     <t>101 ..120</t>
+  </si>
+  <si>
+    <t>Rules String testMaxInt(boolean booVal, int income)</t>
+  </si>
+  <si>
+    <t>2147483640 .. 2147483647</t>
+  </si>
+  <si>
+    <t>Rules String testMaxInt1(boolean booVal, int income)</t>
+  </si>
+  <si>
+    <t>// NOTE! The value is incremented by 1.</t>
+  </si>
+  <si>
+    <t>&lt; 100</t>
+  </si>
+  <si>
+    <t>IntRange</t>
+  </si>
+  <si>
+    <t>incomeType</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
+  <si>
+    <t>Type 2</t>
+  </si>
+  <si>
+    <t>Rules String ClassifyIncome(String incomeType, short incomeClass)</t>
+  </si>
+  <si>
+    <t>incomeClass</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +225,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +257,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="22"/>
       </patternFill>
     </fill>
@@ -254,7 +356,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -287,6 +389,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C7:I54"/>
+  <dimension ref="C6:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -600,20 +741,30 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="49.7109375" customWidth="1"/>
     <col min="5" max="5" width="73.42578125" customWidth="1"/>
-    <col min="9" max="9" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:9">
-      <c r="C7" s="14" t="s">
+    <row r="6" spans="3:10">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="I7" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="3:9">
+      <c r="J7" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
       <c r="C8" s="7" t="s">
         <v>0</v>
       </c>
@@ -627,7 +778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:9">
+    <row r="9" spans="3:10">
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
@@ -638,7 +789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:9">
+    <row r="10" spans="3:10">
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
@@ -649,7 +800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:9">
+    <row r="11" spans="3:10">
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
@@ -663,7 +814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="59.25" customHeight="1">
+    <row r="12" spans="3:10" ht="59.25" customHeight="1">
       <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
@@ -677,7 +828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="3:9">
+    <row r="13" spans="3:10">
       <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
@@ -688,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:9">
+    <row r="14" spans="3:10">
       <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
@@ -699,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:9">
+    <row r="15" spans="3:10">
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
@@ -710,7 +861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:9">
+    <row r="16" spans="3:10">
       <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
@@ -742,11 +893,11 @@
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="7" t="s">
@@ -844,11 +995,11 @@
       </c>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="7" t="s">
@@ -946,10 +1097,10 @@
       </c>
     </row>
     <row r="47" spans="3:5">
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="14"/>
+      <c r="E47" s="29"/>
     </row>
     <row r="48" spans="3:5">
       <c r="D48" s="12" t="s">
@@ -959,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="4:9">
+    <row r="49" spans="3:9">
       <c r="D49" s="3" t="s">
         <v>35</v>
       </c>
@@ -967,7 +1118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="4:9">
+    <row r="50" spans="3:9">
       <c r="D50" s="3" t="s">
         <v>2</v>
       </c>
@@ -975,7 +1126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="4:9">
+    <row r="51" spans="3:9">
       <c r="D51" s="5" t="s">
         <v>3</v>
       </c>
@@ -983,7 +1134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="4:9">
+    <row r="52" spans="3:9">
       <c r="D52" s="4" t="s">
         <v>36</v>
       </c>
@@ -991,7 +1142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="4:9">
+    <row r="53" spans="3:9">
       <c r="D53" s="4" t="s">
         <v>37</v>
       </c>
@@ -1000,7 +1151,7 @@
       </c>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="4:9">
+    <row r="54" spans="3:9">
       <c r="D54" s="4" t="s">
         <v>28</v>
       </c>
@@ -1008,14 +1159,213 @@
         <v>11</v>
       </c>
     </row>
+    <row r="58" spans="3:9">
+      <c r="C58" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9">
+      <c r="C61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="C63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="D66" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="29"/>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="D67" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="D69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="D71" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6">
+      <c r="D75" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+    </row>
+    <row r="76" spans="4:6">
+      <c r="D76" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6">
+      <c r="D77" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="24"/>
+    </row>
+    <row r="78" spans="4:6">
+      <c r="D78" s="25"/>
+      <c r="E78" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="24"/>
+    </row>
+    <row r="79" spans="4:6" ht="15.75">
+      <c r="D79" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6">
+      <c r="D80" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6">
+      <c r="D81" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6">
+      <c r="D82" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="D83" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D66:E66"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C58:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
